--- a/Code/Results/Cases/Case_6_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.87255031083248</v>
+        <v>12.65505461280149</v>
       </c>
       <c r="C2">
-        <v>13.34895097022527</v>
+        <v>6.838941489954182</v>
       </c>
       <c r="D2">
-        <v>3.509340663884788</v>
+        <v>4.774565550333994</v>
       </c>
       <c r="E2">
-        <v>11.55961702513898</v>
+        <v>14.48618841574073</v>
       </c>
       <c r="F2">
-        <v>29.24854120076013</v>
+        <v>19.22544575779125</v>
       </c>
       <c r="G2">
-        <v>2.06442663407637</v>
+        <v>2.08712021553059</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.36943030642336</v>
+        <v>11.21697275062828</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.59978979943199</v>
+        <v>14.53243415701506</v>
       </c>
       <c r="N2">
-        <v>12.22024291167113</v>
+        <v>12.17881081197634</v>
       </c>
       <c r="O2">
-        <v>22.5922367625496</v>
+        <v>15.46310065874004</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.4704524237302</v>
+        <v>11.82985002307618</v>
       </c>
       <c r="C3">
-        <v>12.44205786647388</v>
+        <v>6.551002941064049</v>
       </c>
       <c r="D3">
-        <v>3.591726495673381</v>
+        <v>4.63697487233161</v>
       </c>
       <c r="E3">
-        <v>10.88125141278273</v>
+        <v>13.61731739777729</v>
       </c>
       <c r="F3">
-        <v>27.91937497125303</v>
+        <v>18.80831788018455</v>
       </c>
       <c r="G3">
-        <v>2.073524948426404</v>
+        <v>2.091864435242519</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.17926698101169</v>
+        <v>10.58548165728495</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.38242008486479</v>
+        <v>13.59222764442194</v>
       </c>
       <c r="N3">
-        <v>12.458141177238</v>
+        <v>12.38717983542856</v>
       </c>
       <c r="O3">
-        <v>21.75291283109199</v>
+        <v>15.36124172141332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.56382979015282</v>
+        <v>11.29393339981555</v>
       </c>
       <c r="C4">
-        <v>11.85643363424418</v>
+        <v>6.367372830105852</v>
       </c>
       <c r="D4">
-        <v>3.642362569471948</v>
+        <v>4.549765885073639</v>
       </c>
       <c r="E4">
-        <v>10.45647985937706</v>
+        <v>13.06754353331281</v>
       </c>
       <c r="F4">
-        <v>27.10457892885728</v>
+        <v>18.56471349482606</v>
       </c>
       <c r="G4">
-        <v>2.079245273699151</v>
+        <v>2.094868582182123</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.41011511449075</v>
+        <v>10.17794495073894</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.5972695008669</v>
+        <v>12.9841191357759</v>
       </c>
       <c r="N4">
-        <v>12.60780349300828</v>
+        <v>12.51787417275011</v>
       </c>
       <c r="O4">
-        <v>21.24728593408497</v>
+        <v>15.31137723345082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.18273060256774</v>
+        <v>11.06816550907713</v>
       </c>
       <c r="C5">
-        <v>11.61046446640442</v>
+        <v>6.290880017331261</v>
       </c>
       <c r="D5">
-        <v>3.663038171114795</v>
+        <v>4.513571371209544</v>
       </c>
       <c r="E5">
-        <v>10.28143604515069</v>
+        <v>12.83961562175214</v>
       </c>
       <c r="F5">
-        <v>26.77322331009558</v>
+        <v>18.46864463429808</v>
       </c>
       <c r="G5">
-        <v>2.081611968101764</v>
+        <v>2.096116249274818</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.08691300841497</v>
+        <v>10.00694134256192</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.26770695397413</v>
+        <v>12.72853218233599</v>
       </c>
       <c r="N5">
-        <v>12.66970305308609</v>
+        <v>12.57184961677583</v>
       </c>
       <c r="O5">
-        <v>21.04383905466626</v>
+        <v>15.29415062647231</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.11874208056932</v>
+        <v>11.03023069749344</v>
       </c>
       <c r="C6">
-        <v>11.56917694498905</v>
+        <v>6.278079899023242</v>
       </c>
       <c r="D6">
-        <v>3.666474596254143</v>
+        <v>4.507522592545801</v>
       </c>
       <c r="E6">
-        <v>10.25225726196563</v>
+        <v>12.80154037178502</v>
       </c>
       <c r="F6">
-        <v>26.71825436657</v>
+        <v>18.45288726651307</v>
       </c>
       <c r="G6">
-        <v>2.082007161107252</v>
+        <v>2.096324854886735</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.03265251803689</v>
+        <v>9.978250386030414</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.21239943517977</v>
+        <v>12.68562178166749</v>
       </c>
       <c r="N6">
-        <v>12.68003671137217</v>
+        <v>12.58085614249542</v>
       </c>
       <c r="O6">
-        <v>21.01021875384005</v>
+        <v>15.29147414748987</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.55873748143944</v>
+        <v>11.29091851646725</v>
       </c>
       <c r="C7">
-        <v>11.85314616069413</v>
+        <v>6.366347869216636</v>
       </c>
       <c r="D7">
-        <v>3.642641206265938</v>
+        <v>4.549280368623639</v>
       </c>
       <c r="E7">
-        <v>10.45412683326732</v>
+        <v>13.06448506286753</v>
       </c>
       <c r="F7">
-        <v>27.10010689270305</v>
+        <v>18.56340484685861</v>
       </c>
       <c r="G7">
-        <v>2.079277045096927</v>
+        <v>2.094885313017525</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.40579598622622</v>
+        <v>10.17565861682876</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.59286397170632</v>
+        <v>12.98070372280477</v>
       </c>
       <c r="N7">
-        <v>12.60863459196782</v>
+        <v>12.51859917302236</v>
       </c>
       <c r="O7">
-        <v>21.24453143259846</v>
+        <v>15.31113251202377</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.39850871071418</v>
+        <v>12.37657539871723</v>
       </c>
       <c r="C8">
-        <v>13.04217603101757</v>
+        <v>6.741109882981457</v>
       </c>
       <c r="D8">
-        <v>3.537754476773542</v>
+        <v>4.727707463778884</v>
       </c>
       <c r="E8">
-        <v>11.32749311489949</v>
+        <v>14.19008804731968</v>
       </c>
       <c r="F8">
-        <v>28.79016191355817</v>
+        <v>19.07905884817542</v>
       </c>
       <c r="G8">
-        <v>2.067537149554684</v>
+        <v>2.088737422803965</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.96695775369627</v>
+        <v>11.00336858868726</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.18777815099197</v>
+        <v>14.21462687102002</v>
       </c>
       <c r="N8">
-        <v>12.30152877687473</v>
+        <v>12.25009929214373</v>
       </c>
       <c r="O8">
-        <v>22.30090758257877</v>
+        <v>15.42529351397827</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.6503944027067</v>
+        <v>14.27496664940308</v>
       </c>
       <c r="C9">
-        <v>15.14970419201082</v>
+        <v>7.419768090646624</v>
       </c>
       <c r="D9">
-        <v>3.331066054753674</v>
+        <v>5.054788069794177</v>
       </c>
       <c r="E9">
-        <v>13.04104915329722</v>
+        <v>16.36176938519081</v>
       </c>
       <c r="F9">
-        <v>32.10287378022813</v>
+        <v>20.1867366038225</v>
       </c>
       <c r="G9">
-        <v>2.045482204715217</v>
+        <v>2.077379784764864</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.72944299130369</v>
+        <v>12.46801484323096</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.02300904871782</v>
+        <v>16.39163105083587</v>
       </c>
       <c r="N9">
-        <v>11.72757224099477</v>
+        <v>11.74429574941507</v>
       </c>
       <c r="O9">
-        <v>24.44403450805849</v>
+        <v>15.7536800958761</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.8329715375245</v>
+        <v>15.53140719097987</v>
       </c>
       <c r="C10">
-        <v>16.56813348274022</v>
+        <v>7.881983663243954</v>
       </c>
       <c r="D10">
-        <v>3.17639907380399</v>
+        <v>5.279805207009898</v>
       </c>
       <c r="E10">
-        <v>14.38580528267927</v>
+        <v>17.96808338466546</v>
       </c>
       <c r="F10">
-        <v>34.52525620367102</v>
+        <v>21.05533959076969</v>
       </c>
       <c r="G10">
-        <v>2.02972070464012</v>
+        <v>2.069424033193356</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.58540818610644</v>
+        <v>13.44651608202066</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.93795102513592</v>
+        <v>17.8462655029579</v>
       </c>
       <c r="N10">
-        <v>11.32310041263913</v>
+        <v>11.38363639710412</v>
       </c>
       <c r="O10">
-        <v>26.05733654164814</v>
+        <v>16.06362324565714</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.78354863932181</v>
+        <v>16.0735214117892</v>
       </c>
       <c r="C11">
-        <v>17.18688565456168</v>
+        <v>8.084061696444417</v>
       </c>
       <c r="D11">
-        <v>3.104860723484351</v>
+        <v>5.378609630055139</v>
       </c>
       <c r="E11">
-        <v>14.97794859436366</v>
+        <v>18.66876449082727</v>
       </c>
       <c r="F11">
-        <v>35.6241568822768</v>
+        <v>21.46152339651658</v>
       </c>
       <c r="G11">
-        <v>2.022609317198998</v>
+        <v>2.065880432260231</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.39416767239764</v>
+        <v>13.87048439754465</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.77514681409901</v>
+        <v>18.47741138408027</v>
       </c>
       <c r="N11">
-        <v>11.14295069766651</v>
+        <v>11.22154629673394</v>
       </c>
       <c r="O11">
-        <v>26.79951874769965</v>
+        <v>16.22048024291331</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.13765695056845</v>
+        <v>16.27462044398026</v>
       </c>
       <c r="C12">
-        <v>17.4175391221927</v>
+        <v>8.159390119362948</v>
       </c>
       <c r="D12">
-        <v>3.077547134526903</v>
+        <v>5.41549561498776</v>
       </c>
       <c r="E12">
-        <v>15.19957081873333</v>
+        <v>18.9298877422878</v>
       </c>
       <c r="F12">
-        <v>36.03990054198304</v>
+        <v>21.61685561896061</v>
       </c>
       <c r="G12">
-        <v>2.019921348840213</v>
+        <v>2.064548654752502</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.69551202853915</v>
+        <v>14.02799846808266</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.08753003692128</v>
+        <v>18.71209043193796</v>
       </c>
       <c r="N12">
-        <v>11.07530827610613</v>
+        <v>11.16041651742589</v>
       </c>
       <c r="O12">
-        <v>27.08180687121615</v>
+        <v>16.28222825180771</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.06164992910019</v>
+        <v>16.23149565054128</v>
       </c>
       <c r="C13">
-        <v>17.36802363299614</v>
+        <v>8.143220113538478</v>
       </c>
       <c r="D13">
-        <v>3.083440483082356</v>
+        <v>5.407575347701048</v>
       </c>
       <c r="E13">
-        <v>15.15195297736881</v>
+        <v>18.87383552489349</v>
       </c>
       <c r="F13">
-        <v>35.95037809498491</v>
+        <v>21.58333551348258</v>
       </c>
       <c r="G13">
-        <v>2.02050008997444</v>
+        <v>2.064835039847212</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.63082743560888</v>
+        <v>13.99420969609439</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.02045529965644</v>
+        <v>18.66173906975303</v>
       </c>
       <c r="N13">
-        <v>11.08985015155702</v>
+        <v>11.17357134317667</v>
       </c>
       <c r="O13">
-        <v>27.02095453014966</v>
+        <v>16.26882416467715</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.81279730167557</v>
+        <v>16.09014960328929</v>
       </c>
       <c r="C14">
-        <v>17.20593393997515</v>
+        <v>8.090283019915796</v>
       </c>
       <c r="D14">
-        <v>3.10261843296953</v>
+        <v>5.381654959479234</v>
       </c>
       <c r="E14">
-        <v>14.99623260404501</v>
+        <v>18.69033095226492</v>
       </c>
       <c r="F14">
-        <v>35.65836748540301</v>
+        <v>21.47427259940394</v>
       </c>
       <c r="G14">
-        <v>2.022388098351371</v>
+        <v>2.065770668040921</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.41905678190722</v>
+        <v>13.88350389567388</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.8009384271945</v>
+        <v>18.49680474225107</v>
       </c>
       <c r="N14">
-        <v>11.13737398890741</v>
+        <v>11.21651229994443</v>
       </c>
       <c r="O14">
-        <v>26.82271742658856</v>
+        <v>16.22551282038164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.65961253831889</v>
+        <v>16.00302712056965</v>
       </c>
       <c r="C15">
-        <v>17.10617832347591</v>
+        <v>8.057701605466889</v>
       </c>
       <c r="D15">
-        <v>3.11433464459935</v>
+        <v>5.36570858245242</v>
       </c>
       <c r="E15">
-        <v>14.90051614801128</v>
+        <v>18.57738435992406</v>
       </c>
       <c r="F15">
-        <v>35.4794553393765</v>
+        <v>21.40766430867725</v>
       </c>
       <c r="G15">
-        <v>2.023545094012378</v>
+        <v>2.066345060438855</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.28870711812788</v>
+        <v>13.81529872434177</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.66588049577451</v>
+        <v>18.39521715650504</v>
       </c>
       <c r="N15">
-        <v>11.16655965873884</v>
+        <v>11.24284641999424</v>
       </c>
       <c r="O15">
-        <v>26.70145537751969</v>
+        <v>16.1992913292275</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.77001699769527</v>
+        <v>15.49539011472725</v>
       </c>
       <c r="C16">
-        <v>16.52717628471565</v>
+        <v>7.868611074458457</v>
       </c>
       <c r="D16">
-        <v>3.18104608232676</v>
+        <v>5.273274973981419</v>
       </c>
       <c r="E16">
-        <v>14.34673024715196</v>
+        <v>17.92169692571518</v>
       </c>
       <c r="F16">
-        <v>34.45338154315667</v>
+        <v>21.02901077532177</v>
       </c>
       <c r="G16">
-        <v>2.030186342479297</v>
+        <v>2.069657072242439</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.53185502700896</v>
+        <v>13.41838361263489</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.88257508591517</v>
+        <v>17.80440959169508</v>
       </c>
       <c r="N16">
-        <v>11.33495275415015</v>
+        <v>11.3942662750414</v>
       </c>
       <c r="O16">
-        <v>26.00900272642345</v>
+        <v>16.05369743927934</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.2136022542847</v>
+        <v>15.17646134549604</v>
       </c>
       <c r="C17">
-        <v>16.16529589170738</v>
+        <v>7.750499498802601</v>
       </c>
       <c r="D17">
-        <v>3.221633018824594</v>
+        <v>5.215645683980456</v>
       </c>
       <c r="E17">
-        <v>14.00212222047331</v>
+        <v>17.51183506961298</v>
       </c>
       <c r="F17">
-        <v>33.82314654763811</v>
+        <v>20.79949787575522</v>
       </c>
       <c r="G17">
-        <v>2.034273199500868</v>
+        <v>2.071707705385525</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.05858268653392</v>
+        <v>13.16947421058164</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.39351262042343</v>
+        <v>17.43418805778166</v>
       </c>
       <c r="N17">
-        <v>11.43925475991734</v>
+        <v>11.48764003544222</v>
       </c>
       <c r="O17">
-        <v>25.58634373497938</v>
+        <v>15.96849338714282</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.88957208530483</v>
+        <v>14.99024728906864</v>
       </c>
       <c r="C18">
-        <v>15.95464738471554</v>
+        <v>7.681794944337986</v>
       </c>
       <c r="D18">
-        <v>3.244870136475593</v>
+        <v>5.182164947777497</v>
       </c>
       <c r="E18">
-        <v>13.80205472067365</v>
+        <v>17.27325867397829</v>
       </c>
       <c r="F18">
-        <v>33.4603561520468</v>
+        <v>20.66853225244163</v>
       </c>
       <c r="G18">
-        <v>2.036629596960588</v>
+        <v>2.072894330544358</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.78301214303195</v>
+        <v>13.02431570940118</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.10900864828493</v>
+        <v>17.21836369533844</v>
       </c>
       <c r="N18">
-        <v>11.499606588983</v>
+        <v>11.54153426258921</v>
       </c>
       <c r="O18">
-        <v>25.34401483103753</v>
+        <v>15.92097552153239</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.77916832423327</v>
+        <v>14.92672049018957</v>
       </c>
       <c r="C19">
-        <v>15.88289080555992</v>
+        <v>7.658401147049086</v>
       </c>
       <c r="D19">
-        <v>3.252720909780858</v>
+        <v>5.170772172057309</v>
       </c>
       <c r="E19">
-        <v>13.73399025661483</v>
+        <v>17.19199076656184</v>
       </c>
       <c r="F19">
-        <v>33.33747055201769</v>
+        <v>20.62437111511138</v>
       </c>
       <c r="G19">
-        <v>2.037428518593302</v>
+        <v>2.073297352427162</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.68912657845814</v>
+        <v>12.97482519051941</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.01212279030216</v>
+        <v>17.1447920134623</v>
       </c>
       <c r="N19">
-        <v>11.52010199526056</v>
+        <v>11.55981522707989</v>
       </c>
       <c r="O19">
-        <v>25.26209869728672</v>
+        <v>15.90514039946981</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.27324546333782</v>
+        <v>15.2106986970709</v>
       </c>
       <c r="C20">
-        <v>16.20407680748498</v>
+        <v>7.763152501237222</v>
       </c>
       <c r="D20">
-        <v>3.217323956034726</v>
+        <v>5.221815111439424</v>
       </c>
       <c r="E20">
-        <v>14.03899721312825</v>
+        <v>17.55575818106021</v>
       </c>
       <c r="F20">
-        <v>33.89026665822507</v>
+        <v>20.82382238203767</v>
       </c>
       <c r="G20">
-        <v>2.033837575800652</v>
+        <v>2.071488676731008</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.10930941317569</v>
+        <v>13.19617720594718</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.44590458102798</v>
+        <v>17.47389660723044</v>
       </c>
       <c r="N20">
-        <v>11.42811423444439</v>
+        <v>11.4776810091066</v>
       </c>
       <c r="O20">
-        <v>25.63125629470964</v>
+        <v>15.97740885991808</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.88604832736875</v>
+        <v>16.13177963428917</v>
       </c>
       <c r="C21">
-        <v>17.25364146386626</v>
+        <v>8.105864442415653</v>
       </c>
       <c r="D21">
-        <v>3.096991936918281</v>
+        <v>5.389282895209801</v>
       </c>
       <c r="E21">
-        <v>15.04204048887206</v>
+        <v>18.74434400536024</v>
       </c>
       <c r="F21">
-        <v>35.74414770037725</v>
+        <v>21.50626631133953</v>
       </c>
       <c r="G21">
-        <v>2.021833439598155</v>
+        <v>2.065495583289574</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.48139071131052</v>
+        <v>13.91610309648778</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.86553992058433</v>
+        <v>18.54536662702906</v>
       </c>
       <c r="N21">
-        <v>11.12339920014095</v>
+        <v>11.20389298984199</v>
       </c>
       <c r="O21">
-        <v>26.88091014251345</v>
+        <v>16.23817011754447</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.90610498917648</v>
+        <v>16.70937305248403</v>
       </c>
       <c r="C22">
-        <v>17.91837685560097</v>
+        <v>8.322882314285806</v>
       </c>
       <c r="D22">
-        <v>3.017014522151729</v>
+        <v>5.495642072783764</v>
       </c>
       <c r="E22">
-        <v>15.68249262905828</v>
+        <v>19.49667646065176</v>
       </c>
       <c r="F22">
-        <v>36.95360360589696</v>
+        <v>21.96111137033925</v>
       </c>
       <c r="G22">
-        <v>2.014015033380443</v>
+        <v>2.061637277329541</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.34958017128677</v>
+        <v>14.36894352424022</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.76640883126665</v>
+        <v>19.22048077873758</v>
       </c>
       <c r="N22">
-        <v>10.92762962931935</v>
+        <v>11.02639786938241</v>
       </c>
       <c r="O22">
-        <v>27.70492336792369</v>
+        <v>16.42231723857678</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.36471202514808</v>
+        <v>16.40331572105155</v>
       </c>
       <c r="C23">
-        <v>17.56547999907552</v>
+        <v>8.207697126344565</v>
       </c>
       <c r="D23">
-        <v>3.05984171737672</v>
+        <v>5.439164241659557</v>
       </c>
       <c r="E23">
-        <v>15.34197670221037</v>
+        <v>19.09734287763812</v>
       </c>
       <c r="F23">
-        <v>36.30825143313812</v>
+        <v>21.71756531117561</v>
       </c>
       <c r="G23">
-        <v>2.018186650568577</v>
+        <v>2.063691434192656</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.88875350842363</v>
+        <v>14.12886640658854</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.28797955690547</v>
+        <v>18.86243474381178</v>
       </c>
       <c r="N23">
-        <v>11.03179544413513</v>
+        <v>11.12101025753499</v>
       </c>
       <c r="O23">
-        <v>27.26443318974096</v>
+        <v>16.32275707523524</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.24629368027797</v>
+        <v>15.19522889488057</v>
       </c>
       <c r="C24">
-        <v>16.18655206122015</v>
+        <v>7.757434571284579</v>
       </c>
       <c r="D24">
-        <v>3.219272381015787</v>
+        <v>5.219026998638979</v>
       </c>
       <c r="E24">
-        <v>14.02233211113073</v>
+        <v>17.53590971223918</v>
       </c>
       <c r="F24">
-        <v>33.85992309158087</v>
+        <v>20.81282220113872</v>
       </c>
       <c r="G24">
-        <v>2.034034499810724</v>
+        <v>2.071587675580453</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.08638671376305</v>
+        <v>13.18411118995327</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.42222858208541</v>
+        <v>17.45595365670925</v>
       </c>
       <c r="N24">
-        <v>11.43314966151819</v>
+        <v>11.48218282077265</v>
       </c>
       <c r="O24">
-        <v>25.61094926308122</v>
+        <v>15.97337361030226</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.80774997242544</v>
+        <v>13.78586732557424</v>
       </c>
       <c r="C25">
-        <v>14.60291304543801</v>
+        <v>7.242441798855944</v>
       </c>
       <c r="D25">
-        <v>3.387300691738891</v>
+        <v>4.968898883391712</v>
       </c>
       <c r="E25">
-        <v>12.53428009486477</v>
+        <v>15.74292151790005</v>
       </c>
       <c r="F25">
-        <v>31.20823039230671</v>
+        <v>19.87715714405967</v>
       </c>
       <c r="G25">
-        <v>2.05135945206724</v>
+        <v>2.080381259056693</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.01327962324738</v>
+        <v>12.08889721368685</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.2863181333056</v>
+        <v>15.82838259849551</v>
       </c>
       <c r="N25">
-        <v>11.87983613669246</v>
+        <v>11.87907802547023</v>
       </c>
       <c r="O25">
-        <v>23.85724377153248</v>
+        <v>15.65311858115853</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.65505461280149</v>
+        <v>11.63434146798654</v>
       </c>
       <c r="C2">
-        <v>6.838941489954182</v>
+        <v>8.278383835523464</v>
       </c>
       <c r="D2">
-        <v>4.774565550333994</v>
+        <v>5.159381481199027</v>
       </c>
       <c r="E2">
-        <v>14.48618841574073</v>
+        <v>14.75458714763958</v>
       </c>
       <c r="F2">
-        <v>19.22544575779125</v>
+        <v>16.19061649110196</v>
       </c>
       <c r="G2">
-        <v>2.08712021553059</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>19.34039519532529</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.89509664528837</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.221825453458607</v>
       </c>
       <c r="K2">
-        <v>11.21697275062828</v>
+        <v>12.65696733189836</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.53243415701506</v>
+        <v>11.00429848183007</v>
       </c>
       <c r="N2">
-        <v>12.17881081197634</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.46310065874004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.41773319582337</v>
+      </c>
+      <c r="P2">
+        <v>11.92045634065545</v>
+      </c>
+      <c r="Q2">
+        <v>13.04521984865003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.82985002307618</v>
+        <v>10.92524746178797</v>
       </c>
       <c r="C3">
-        <v>6.551002941064049</v>
+        <v>7.938442068492119</v>
       </c>
       <c r="D3">
-        <v>4.63697487233161</v>
+        <v>4.937279436024607</v>
       </c>
       <c r="E3">
-        <v>13.61731739777729</v>
+        <v>13.88715614420294</v>
       </c>
       <c r="F3">
-        <v>18.80831788018455</v>
+        <v>15.900205943606</v>
       </c>
       <c r="G3">
-        <v>2.091864435242519</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>19.01045985225413</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.763705486240457</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.258870974464779</v>
       </c>
       <c r="K3">
-        <v>10.58548165728495</v>
+        <v>12.75123146210063</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.59222764442194</v>
+        <v>10.45360424427341</v>
       </c>
       <c r="N3">
-        <v>12.38717983542856</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.36124172141332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.51133923105981</v>
+      </c>
+      <c r="P3">
+        <v>12.06775931197618</v>
+      </c>
+      <c r="Q3">
+        <v>13.02649357725618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.29393339981555</v>
+        <v>10.46297195376182</v>
       </c>
       <c r="C4">
-        <v>6.367372830105852</v>
+        <v>7.724026297329274</v>
       </c>
       <c r="D4">
-        <v>4.549765885073639</v>
+        <v>4.795349179769707</v>
       </c>
       <c r="E4">
-        <v>13.06754353331281</v>
+        <v>13.33847344795926</v>
       </c>
       <c r="F4">
-        <v>18.56471349482606</v>
+        <v>15.72887826557576</v>
       </c>
       <c r="G4">
-        <v>2.094868582182123</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>18.8186428678145</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.680593219968249</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.284833006959611</v>
       </c>
       <c r="K4">
-        <v>10.17794495073894</v>
+        <v>12.81355856372767</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.9841191357759</v>
+        <v>10.09930512018745</v>
       </c>
       <c r="N4">
-        <v>12.51787417275011</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.31137723345082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.92462441751</v>
+      </c>
+      <c r="P4">
+        <v>12.16034257792004</v>
+      </c>
+      <c r="Q4">
+        <v>13.021897004328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.06816550907713</v>
+        <v>10.26321995102627</v>
       </c>
       <c r="C5">
-        <v>6.290880017331261</v>
+        <v>7.641720654795312</v>
       </c>
       <c r="D5">
-        <v>4.513571371209544</v>
+        <v>4.737325397416368</v>
       </c>
       <c r="E5">
-        <v>12.83961562175214</v>
+        <v>13.11091032418925</v>
       </c>
       <c r="F5">
-        <v>18.46864463429808</v>
+        <v>15.6556315993491</v>
       </c>
       <c r="G5">
-        <v>2.096116249274818</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>18.73386343413302</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.646704796335776</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.294812927999743</v>
       </c>
       <c r="K5">
-        <v>10.00694134256192</v>
+        <v>12.83622403158467</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.72853218233599</v>
+        <v>9.951055423434505</v>
       </c>
       <c r="N5">
-        <v>12.57184961677583</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.29415062647231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.67799320971683</v>
+      </c>
+      <c r="P5">
+        <v>12.19849358244388</v>
+      </c>
+      <c r="Q5">
+        <v>13.01807337121155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.03023069749344</v>
+        <v>10.22397693108114</v>
       </c>
       <c r="C6">
-        <v>6.278079899023242</v>
+        <v>7.63588663466692</v>
       </c>
       <c r="D6">
-        <v>4.507522592545801</v>
+        <v>4.729043439509189</v>
       </c>
       <c r="E6">
-        <v>12.80154037178502</v>
+        <v>13.07270277282121</v>
       </c>
       <c r="F6">
-        <v>18.45288726651307</v>
+        <v>15.63717124402763</v>
       </c>
       <c r="G6">
-        <v>2.096324854886735</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>18.70852407998022</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.641984063265502</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.294819645549632</v>
       </c>
       <c r="K6">
-        <v>9.978250386030414</v>
+        <v>12.83538226025489</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.68562178166749</v>
+        <v>9.926334119147096</v>
       </c>
       <c r="N6">
-        <v>12.58085614249542</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.29147414748987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.63664470189129</v>
+      </c>
+      <c r="P6">
+        <v>12.2047136863273</v>
+      </c>
+      <c r="Q6">
+        <v>13.01309169211925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.29091851646725</v>
+        <v>10.44515553829667</v>
       </c>
       <c r="C7">
-        <v>6.366347869216636</v>
+        <v>7.744267515619701</v>
       </c>
       <c r="D7">
-        <v>4.549280368623639</v>
+        <v>4.798439488936743</v>
       </c>
       <c r="E7">
-        <v>13.06448506286753</v>
+        <v>13.33488803535219</v>
       </c>
       <c r="F7">
-        <v>18.56340484685861</v>
+        <v>15.71048346368463</v>
       </c>
       <c r="G7">
-        <v>2.094885313017525</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>18.78644585218084</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.682356167369441</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.280331595949116</v>
       </c>
       <c r="K7">
-        <v>10.17565861682876</v>
+        <v>12.80109455511786</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.98070372280477</v>
+        <v>10.09768267596247</v>
       </c>
       <c r="N7">
-        <v>12.51859917302236</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.31113251202377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.92149371031046</v>
+      </c>
+      <c r="P7">
+        <v>12.16049722051262</v>
+      </c>
+      <c r="Q7">
+        <v>13.00970896297196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.37657539871723</v>
+        <v>11.37680300621995</v>
       </c>
       <c r="C8">
-        <v>6.741109882981457</v>
+        <v>8.189457531818846</v>
       </c>
       <c r="D8">
-        <v>4.727707463778884</v>
+        <v>5.088877809651053</v>
       </c>
       <c r="E8">
-        <v>14.19008804731968</v>
+        <v>14.45830340912544</v>
       </c>
       <c r="F8">
-        <v>19.07905884817542</v>
+        <v>16.06656413992776</v>
       </c>
       <c r="G8">
-        <v>2.088737422803965</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>19.18421720475945</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.852712251216638</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.22780251356043</v>
       </c>
       <c r="K8">
-        <v>11.00336858868726</v>
+        <v>12.67160901066377</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.21462687102002</v>
+        <v>10.81828985798393</v>
       </c>
       <c r="N8">
-        <v>12.25009929214373</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.42529351397827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.11165903771189</v>
+      </c>
+      <c r="P8">
+        <v>11.97054220876325</v>
+      </c>
+      <c r="Q8">
+        <v>13.02134389720125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27496664940308</v>
+        <v>13.01419596114661</v>
       </c>
       <c r="C9">
-        <v>7.419768090646624</v>
+        <v>8.979700043814558</v>
       </c>
       <c r="D9">
-        <v>5.054788069794177</v>
+        <v>5.606332099012036</v>
       </c>
       <c r="E9">
-        <v>16.36176938519081</v>
+        <v>16.58658371407865</v>
       </c>
       <c r="F9">
-        <v>20.1867366038225</v>
+        <v>16.84797552455596</v>
       </c>
       <c r="G9">
-        <v>2.077379784764864</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>20.10229721715886</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.165175047991649</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.159549752981658</v>
       </c>
       <c r="K9">
-        <v>12.46801484323096</v>
+        <v>12.47734212390763</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.39163105083587</v>
+        <v>12.09944478384397</v>
       </c>
       <c r="N9">
-        <v>11.74429574941507</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.7536800958761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.2064775496844</v>
+      </c>
+      <c r="P9">
+        <v>11.61485627280588</v>
+      </c>
+      <c r="Q9">
+        <v>13.12268943140978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.53140719097987</v>
+        <v>14.08050136308547</v>
       </c>
       <c r="C10">
-        <v>7.881983663243954</v>
+        <v>9.539467193908017</v>
       </c>
       <c r="D10">
-        <v>5.279805207009898</v>
+        <v>5.958810323621817</v>
       </c>
       <c r="E10">
-        <v>17.96808338466546</v>
+        <v>18.19692646673105</v>
       </c>
       <c r="F10">
-        <v>21.05533959076969</v>
+        <v>17.44281074804639</v>
       </c>
       <c r="G10">
-        <v>2.069424033193356</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>20.81142839662714</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.385194139286348</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.124669344493999</v>
       </c>
       <c r="K10">
-        <v>13.44651608202066</v>
+        <v>12.35282122365636</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.8462655029579</v>
+        <v>12.95778857304907</v>
       </c>
       <c r="N10">
-        <v>11.38363639710412</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.06362324565714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.60160104276284</v>
+      </c>
+      <c r="P10">
+        <v>11.3630939202655</v>
+      </c>
+      <c r="Q10">
+        <v>13.22895165874675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.0735214117892</v>
+        <v>14.51919426204075</v>
       </c>
       <c r="C11">
-        <v>8.084061696444417</v>
+        <v>9.816023208088245</v>
       </c>
       <c r="D11">
-        <v>5.378609630055139</v>
+        <v>6.117694283050938</v>
       </c>
       <c r="E11">
-        <v>18.66876449082727</v>
+        <v>18.89754265681324</v>
       </c>
       <c r="F11">
-        <v>21.46152339651658</v>
+        <v>17.69392348652685</v>
       </c>
       <c r="G11">
-        <v>2.065880432260231</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>21.0994845794299</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.487026600706018</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.105437525801053</v>
       </c>
       <c r="K11">
-        <v>13.87048439754465</v>
+        <v>12.2809943277213</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.47741138408027</v>
+        <v>13.33033284731712</v>
       </c>
       <c r="N11">
-        <v>11.22154629673394</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.22048024291331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.20564683241761</v>
+      </c>
+      <c r="P11">
+        <v>11.25094707447813</v>
+      </c>
+      <c r="Q11">
+        <v>13.2670533312723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.27462044398026</v>
+        <v>14.69134299364818</v>
       </c>
       <c r="C12">
-        <v>8.159390119362948</v>
+        <v>9.904064683372814</v>
       </c>
       <c r="D12">
-        <v>5.41549561498776</v>
+        <v>6.17406784435933</v>
       </c>
       <c r="E12">
-        <v>18.9298877422878</v>
+        <v>19.15875227642267</v>
       </c>
       <c r="F12">
-        <v>21.61685561896061</v>
+        <v>17.80329312015175</v>
       </c>
       <c r="G12">
-        <v>2.064548654752502</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>21.2341752779056</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.52327772073767</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.102765832543016</v>
       </c>
       <c r="K12">
-        <v>14.02799846808266</v>
+        <v>12.26584423403318</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.71209043193796</v>
+        <v>13.46845948136989</v>
       </c>
       <c r="N12">
-        <v>11.16041651742589</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.28222825180771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.42993554611755</v>
+      </c>
+      <c r="P12">
+        <v>11.20857505941623</v>
+      </c>
+      <c r="Q12">
+        <v>13.29298553070702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.23149565054128</v>
+        <v>14.65641429276626</v>
       </c>
       <c r="C13">
-        <v>8.143220113538478</v>
+        <v>9.882052303533015</v>
       </c>
       <c r="D13">
-        <v>5.407575347701048</v>
+        <v>6.16141387728088</v>
       </c>
       <c r="E13">
-        <v>18.87383552489349</v>
+        <v>19.10275614339923</v>
       </c>
       <c r="F13">
-        <v>21.58333551348258</v>
+        <v>17.78238975037492</v>
       </c>
       <c r="G13">
-        <v>2.064835039847212</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>21.2098966018134</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.515020104498801</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.1041146835547</v>
       </c>
       <c r="K13">
-        <v>13.99420969609439</v>
+        <v>12.27131346629427</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.66173906975303</v>
+        <v>13.4387763451108</v>
       </c>
       <c r="N13">
-        <v>11.17357134317667</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.26882416467715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.3818104450978</v>
+      </c>
+      <c r="P13">
+        <v>11.21764362140491</v>
+      </c>
+      <c r="Q13">
+        <v>13.28937915062908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.09014960328929</v>
+        <v>14.53427991096939</v>
       </c>
       <c r="C14">
-        <v>8.090283019915796</v>
+        <v>9.8219637244175</v>
       </c>
       <c r="D14">
-        <v>5.381654959479234</v>
+        <v>6.122114033935025</v>
       </c>
       <c r="E14">
-        <v>18.69033095226492</v>
+        <v>18.91914832249996</v>
       </c>
       <c r="F14">
-        <v>21.47427259940394</v>
+        <v>17.70405185736341</v>
       </c>
       <c r="G14">
-        <v>2.065770668040921</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>21.112582364743</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.489811312137401</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.105545748113808</v>
       </c>
       <c r="K14">
-        <v>13.88350389567388</v>
+        <v>12.28068386855217</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.49680474225107</v>
+        <v>13.34172708097493</v>
       </c>
       <c r="N14">
-        <v>11.21651229994443</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.22551282038164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.22418035732775</v>
+      </c>
+      <c r="P14">
+        <v>11.24743752145183</v>
+      </c>
+      <c r="Q14">
+        <v>13.27002734595453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.00302712056965</v>
+        <v>14.4550118776669</v>
       </c>
       <c r="C15">
-        <v>8.057701605466889</v>
+        <v>9.791195949206056</v>
       </c>
       <c r="D15">
-        <v>5.36570858245242</v>
+        <v>6.099022801924066</v>
       </c>
       <c r="E15">
-        <v>18.57738435992406</v>
+        <v>18.80598080081553</v>
       </c>
       <c r="F15">
-        <v>21.40766430867725</v>
+        <v>17.65083170367446</v>
       </c>
       <c r="G15">
-        <v>2.066345060438855</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>21.04363678719128</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.475337038865123</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.104924595549832</v>
       </c>
       <c r="K15">
-        <v>13.81529872434177</v>
+        <v>12.28212112122889</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.39521715650504</v>
+        <v>13.28204125833182</v>
       </c>
       <c r="N15">
-        <v>11.24284641999424</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.1992913292275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.12708886594454</v>
+      </c>
+      <c r="P15">
+        <v>11.26580255795603</v>
+      </c>
+      <c r="Q15">
+        <v>13.25432020498504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.49539011472725</v>
+        <v>14.01740629424761</v>
       </c>
       <c r="C16">
-        <v>7.868611074458457</v>
+        <v>9.573970806390109</v>
       </c>
       <c r="D16">
-        <v>5.273274973981419</v>
+        <v>5.95777286881349</v>
       </c>
       <c r="E16">
-        <v>17.92169692571518</v>
+        <v>18.1494134818248</v>
       </c>
       <c r="F16">
-        <v>21.02901077532177</v>
+        <v>17.3810634607875</v>
       </c>
       <c r="G16">
-        <v>2.069657072242439</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>20.71160630677947</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.385839579822588</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.112684788595699</v>
       </c>
       <c r="K16">
-        <v>13.41838361263489</v>
+        <v>12.32038478961775</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.80440959169508</v>
+        <v>12.93399419889199</v>
       </c>
       <c r="N16">
-        <v>11.3942662750414</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.05369743927934</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>17.56177541945165</v>
+      </c>
+      <c r="P16">
+        <v>11.37100471324224</v>
+      </c>
+      <c r="Q16">
+        <v>13.19255926565466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17646134549604</v>
+        <v>13.74170523570673</v>
       </c>
       <c r="C17">
-        <v>7.750499498802601</v>
+        <v>9.438931886987138</v>
       </c>
       <c r="D17">
-        <v>5.215645683980456</v>
+        <v>5.869406057580841</v>
       </c>
       <c r="E17">
-        <v>17.51183506961298</v>
+        <v>17.73865770949415</v>
       </c>
       <c r="F17">
-        <v>20.79949787575522</v>
+        <v>17.21700860322479</v>
       </c>
       <c r="G17">
-        <v>2.071707705385525</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>20.51059743753222</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.330574238197227</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.118577857567804</v>
       </c>
       <c r="K17">
-        <v>13.16947421058164</v>
+        <v>12.3455607125835</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.43418805778166</v>
+        <v>12.71574023260428</v>
       </c>
       <c r="N17">
-        <v>11.48764003544222</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.96849338714282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.20713713357471</v>
+      </c>
+      <c r="P17">
+        <v>11.43600271640168</v>
+      </c>
+      <c r="Q17">
+        <v>13.15707677255946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.99024728906864</v>
+        <v>13.5910139572392</v>
       </c>
       <c r="C18">
-        <v>7.681794944337986</v>
+        <v>9.344263607975577</v>
       </c>
       <c r="D18">
-        <v>5.182164947777497</v>
+        <v>5.815021915924466</v>
       </c>
       <c r="E18">
-        <v>17.27325867397829</v>
+        <v>17.49978789153833</v>
       </c>
       <c r="F18">
-        <v>20.66853225244163</v>
+        <v>17.13717516768176</v>
       </c>
       <c r="G18">
-        <v>2.072894330544358</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>20.42096345162676</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.295563610587198</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.126412954030826</v>
       </c>
       <c r="K18">
-        <v>13.02431570940118</v>
+        <v>12.37189342990726</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.21836369533844</v>
+        <v>12.58818518524737</v>
       </c>
       <c r="N18">
-        <v>11.54153426258921</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.92097552153239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.00017578362066</v>
+      </c>
+      <c r="P18">
+        <v>11.47343219790783</v>
+      </c>
+      <c r="Q18">
+        <v>13.1479118791569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.92672049018957</v>
+        <v>13.53141312442692</v>
       </c>
       <c r="C19">
-        <v>7.658401147049086</v>
+        <v>9.324684086211482</v>
       </c>
       <c r="D19">
-        <v>5.170772172057309</v>
+        <v>5.798760188259135</v>
       </c>
       <c r="E19">
-        <v>17.19199076656184</v>
+        <v>17.41813792877559</v>
       </c>
       <c r="F19">
-        <v>20.62437111511138</v>
+        <v>17.09947580172726</v>
       </c>
       <c r="G19">
-        <v>2.073297352427162</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>20.37155019152311</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.285988675634586</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.126019910478391</v>
       </c>
       <c r="K19">
-        <v>12.97482519051941</v>
+        <v>12.37223752449455</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.1447920134623</v>
+        <v>12.54492165580232</v>
       </c>
       <c r="N19">
-        <v>11.55981522707989</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.90514039946981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.92967133259101</v>
+      </c>
+      <c r="P19">
+        <v>11.48623587161024</v>
+      </c>
+      <c r="Q19">
+        <v>13.13695771921438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.2106986970709</v>
+        <v>13.77214851537945</v>
       </c>
       <c r="C20">
-        <v>7.763152501237222</v>
+        <v>9.452101411165831</v>
       </c>
       <c r="D20">
-        <v>5.221815111439424</v>
+        <v>5.878649352434928</v>
       </c>
       <c r="E20">
-        <v>17.55575818106021</v>
+        <v>17.78271520866997</v>
       </c>
       <c r="F20">
-        <v>20.82382238203767</v>
+        <v>17.2355060722191</v>
       </c>
       <c r="G20">
-        <v>2.071488676731008</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>20.53383938913984</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.336224423014588</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.118224992756577</v>
       </c>
       <c r="K20">
-        <v>13.19617720594718</v>
+        <v>12.34369979747315</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.47389660723044</v>
+        <v>12.73913095293851</v>
       </c>
       <c r="N20">
-        <v>11.4776810091066</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.97740885991808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.24518153393293</v>
+      </c>
+      <c r="P20">
+        <v>11.42905407891391</v>
+      </c>
+      <c r="Q20">
+        <v>13.16157606579353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.13177963428917</v>
+        <v>14.55919166051437</v>
       </c>
       <c r="C21">
-        <v>8.105864442415653</v>
+        <v>9.857063704937874</v>
       </c>
       <c r="D21">
-        <v>5.389282895209801</v>
+        <v>6.136812299729689</v>
       </c>
       <c r="E21">
-        <v>18.74434400536024</v>
+        <v>18.97283512126175</v>
       </c>
       <c r="F21">
-        <v>21.50626631133953</v>
+        <v>17.71196343231429</v>
       </c>
       <c r="G21">
-        <v>2.065495583289574</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>21.11419962515668</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.500085660507033</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.10061221565061</v>
       </c>
       <c r="K21">
-        <v>13.91610309648778</v>
+        <v>12.26531572576368</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.54536662702906</v>
+        <v>13.3706110999033</v>
       </c>
       <c r="N21">
-        <v>11.20389298984199</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.23817011754447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.27067941586366</v>
+      </c>
+      <c r="P21">
+        <v>11.23893075226322</v>
+      </c>
+      <c r="Q21">
+        <v>13.26423759812486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.70937305248403</v>
+        <v>15.06397578145407</v>
       </c>
       <c r="C22">
-        <v>8.322882314285806</v>
+        <v>10.09375809021471</v>
       </c>
       <c r="D22">
-        <v>5.495642072783764</v>
+        <v>6.295898553563725</v>
       </c>
       <c r="E22">
-        <v>19.49667646065176</v>
+        <v>19.72534983866542</v>
       </c>
       <c r="F22">
-        <v>21.96111137033925</v>
+        <v>18.04692005048349</v>
       </c>
       <c r="G22">
-        <v>2.061637277329541</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>21.53616564656523</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.602261765298921</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.098631031698185</v>
       </c>
       <c r="K22">
-        <v>14.36894352424022</v>
+        <v>12.23585020837872</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.22048077873758</v>
+        <v>13.76734846915568</v>
       </c>
       <c r="N22">
-        <v>11.02639786938241</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.42231723857678</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.91534626035128</v>
+      </c>
+      <c r="P22">
+        <v>11.11580885858885</v>
+      </c>
+      <c r="Q22">
+        <v>13.35390079330333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.40331572105155</v>
+        <v>14.80994418954704</v>
       </c>
       <c r="C23">
-        <v>8.207697126344565</v>
+        <v>9.947132209032784</v>
       </c>
       <c r="D23">
-        <v>5.439164241659557</v>
+        <v>6.207769907824561</v>
       </c>
       <c r="E23">
-        <v>19.09734287763812</v>
+        <v>19.32648092771629</v>
       </c>
       <c r="F23">
-        <v>21.71756531117561</v>
+        <v>17.88584043266718</v>
       </c>
       <c r="G23">
-        <v>2.063691434192656</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>21.34247523522293</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.544759031463561</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.104746042376201</v>
       </c>
       <c r="K23">
-        <v>14.12886640658854</v>
+        <v>12.26622172337129</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.86243474381178</v>
+        <v>13.55666880728974</v>
       </c>
       <c r="N23">
-        <v>11.12101025753499</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.32275707523524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.57349345311017</v>
+      </c>
+      <c r="P23">
+        <v>11.18107414185095</v>
+      </c>
+      <c r="Q23">
+        <v>13.31905229656502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.19522889488057</v>
+        <v>13.7804814504532</v>
       </c>
       <c r="C24">
-        <v>7.757434571284579</v>
+        <v>9.411877826738763</v>
       </c>
       <c r="D24">
-        <v>5.219026998638979</v>
+        <v>5.868315849183661</v>
       </c>
       <c r="E24">
-        <v>17.53590971223918</v>
+        <v>17.76352261052693</v>
       </c>
       <c r="F24">
-        <v>20.81282220113872</v>
+        <v>17.25654550231188</v>
       </c>
       <c r="G24">
-        <v>2.071587675580453</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>20.57587412934184</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.328056393130975</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.126928769080282</v>
       </c>
       <c r="K24">
-        <v>13.18411118995327</v>
+        <v>12.36837116311053</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.45595365670925</v>
+        <v>12.72795929200735</v>
       </c>
       <c r="N24">
-        <v>11.48218282077265</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.97337361030226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.22781098894248</v>
+      </c>
+      <c r="P24">
+        <v>11.43189688344989</v>
+      </c>
+      <c r="Q24">
+        <v>13.18145482266894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.78586732557424</v>
+        <v>12.57104105701834</v>
       </c>
       <c r="C25">
-        <v>7.242441798855944</v>
+        <v>8.806069567636703</v>
       </c>
       <c r="D25">
-        <v>4.968898883391712</v>
+        <v>5.477711082496884</v>
       </c>
       <c r="E25">
-        <v>15.74292151790005</v>
+        <v>15.98181359481806</v>
       </c>
       <c r="F25">
-        <v>19.87715714405967</v>
+        <v>16.60164787414902</v>
       </c>
       <c r="G25">
-        <v>2.080381259056693</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>19.79218782259723</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.086676692946777</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.166707335410392</v>
       </c>
       <c r="K25">
-        <v>12.08889721368685</v>
+        <v>12.50260375070761</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.82838259849551</v>
+        <v>11.76789031218764</v>
       </c>
       <c r="N25">
-        <v>11.87907802547023</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.65311858115853</v>
+        <v>15.66541988078944</v>
+      </c>
+      <c r="P25">
+        <v>11.70936550172011</v>
+      </c>
+      <c r="Q25">
+        <v>13.06729981489337</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.63434146798654</v>
+        <v>11.47866749907959</v>
       </c>
       <c r="C2">
-        <v>8.278383835523464</v>
+        <v>8.375751771442657</v>
       </c>
       <c r="D2">
-        <v>5.159381481199027</v>
+        <v>5.20898818221555</v>
       </c>
       <c r="E2">
-        <v>14.75458714763958</v>
+        <v>14.74679694499139</v>
       </c>
       <c r="F2">
-        <v>16.19061649110196</v>
+        <v>15.94223945093821</v>
       </c>
       <c r="G2">
-        <v>19.34039519532529</v>
+        <v>18.1884319049649</v>
       </c>
       <c r="I2">
-        <v>2.89509664528837</v>
+        <v>2.922321851031184</v>
       </c>
       <c r="J2">
-        <v>8.221825453458607</v>
+        <v>8.678872616034319</v>
       </c>
       <c r="K2">
-        <v>12.65696733189836</v>
+        <v>12.39015026233648</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.14153652442023</v>
       </c>
       <c r="M2">
-        <v>11.00429848183007</v>
+        <v>7.201197343195524</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.41773319582337</v>
+        <v>10.99702323181568</v>
       </c>
       <c r="P2">
-        <v>11.92045634065545</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.04521984865003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.41650553889472</v>
+      </c>
+      <c r="R2">
+        <v>11.89302343763853</v>
+      </c>
+      <c r="S2">
+        <v>12.8648349108821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.92524746178797</v>
+        <v>10.81677927783458</v>
       </c>
       <c r="C3">
-        <v>7.938442068492119</v>
+        <v>7.95236020443242</v>
       </c>
       <c r="D3">
-        <v>4.937279436024607</v>
+        <v>4.972358131103732</v>
       </c>
       <c r="E3">
-        <v>13.88715614420294</v>
+        <v>13.8814313296528</v>
       </c>
       <c r="F3">
-        <v>15.900205943606</v>
+        <v>15.68660419512399</v>
       </c>
       <c r="G3">
-        <v>19.01045985225413</v>
+        <v>17.92320242536982</v>
       </c>
       <c r="I3">
-        <v>2.763705486240457</v>
+        <v>2.804909922505549</v>
       </c>
       <c r="J3">
-        <v>8.258870974464779</v>
+        <v>8.693170548923348</v>
       </c>
       <c r="K3">
-        <v>12.75123146210063</v>
+        <v>12.49938884602949</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.3036680259505</v>
       </c>
       <c r="M3">
-        <v>10.45360424427341</v>
+        <v>7.217488010953882</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.51133923105981</v>
+        <v>10.44895282373543</v>
       </c>
       <c r="P3">
-        <v>12.06775931197618</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.02649357725618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.51181983590767</v>
+      </c>
+      <c r="R3">
+        <v>12.02892493786402</v>
+      </c>
+      <c r="S3">
+        <v>12.86651563177758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.46297195376182</v>
+        <v>10.38538732601815</v>
       </c>
       <c r="C4">
-        <v>7.724026297329274</v>
+        <v>7.684595412801388</v>
       </c>
       <c r="D4">
-        <v>4.795349179769707</v>
+        <v>4.821089307771471</v>
       </c>
       <c r="E4">
-        <v>13.33847344795926</v>
+        <v>13.3340556397766</v>
       </c>
       <c r="F4">
-        <v>15.72887826557576</v>
+        <v>15.53558147326823</v>
       </c>
       <c r="G4">
-        <v>18.8186428678145</v>
+        <v>17.77278134070902</v>
       </c>
       <c r="I4">
-        <v>2.680593219968249</v>
+        <v>2.730766944631608</v>
       </c>
       <c r="J4">
-        <v>8.284833006959611</v>
+        <v>8.703401925088107</v>
       </c>
       <c r="K4">
-        <v>12.81355856372767</v>
+        <v>12.56964604019704</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.40641283280086</v>
       </c>
       <c r="M4">
-        <v>10.09930512018745</v>
+        <v>7.248982897628825</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.92462441751</v>
+        <v>10.09638481394533</v>
       </c>
       <c r="P4">
-        <v>12.16034257792004</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.021897004328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.9260873532738</v>
+      </c>
+      <c r="R4">
+        <v>12.11463820507603</v>
+      </c>
+      <c r="S4">
+        <v>12.87329832672982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.26321995102627</v>
+        <v>10.19872039657203</v>
       </c>
       <c r="C5">
-        <v>7.641720654795312</v>
+        <v>7.580614745448226</v>
       </c>
       <c r="D5">
-        <v>4.737325397416368</v>
+        <v>4.759177974592124</v>
       </c>
       <c r="E5">
-        <v>13.11091032418925</v>
+        <v>13.10703817082929</v>
       </c>
       <c r="F5">
-        <v>15.6556315993491</v>
+        <v>15.47030340321064</v>
       </c>
       <c r="G5">
-        <v>18.73386343413302</v>
+        <v>17.70498464530496</v>
       </c>
       <c r="I5">
-        <v>2.646704796335776</v>
+        <v>2.700890962529242</v>
       </c>
       <c r="J5">
-        <v>8.294812927999743</v>
+        <v>8.706539386845101</v>
       </c>
       <c r="K5">
-        <v>12.83622403158467</v>
+        <v>12.59530438353517</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.44547887116923</v>
       </c>
       <c r="M5">
-        <v>9.951055423434505</v>
+        <v>7.265209417427962</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.67799320971683</v>
+        <v>9.948882375753985</v>
       </c>
       <c r="P5">
-        <v>12.19849358244388</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.01807337121155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.67984557210899</v>
+      </c>
+      <c r="R5">
+        <v>12.15005964930309</v>
+      </c>
+      <c r="S5">
+        <v>12.87383020006803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.22397693108114</v>
+        <v>10.16169804234582</v>
       </c>
       <c r="C6">
-        <v>7.63588663466692</v>
+        <v>7.571837658341936</v>
       </c>
       <c r="D6">
-        <v>4.729043439509189</v>
+        <v>4.750266234016501</v>
       </c>
       <c r="E6">
-        <v>13.07270277282121</v>
+        <v>13.06892255792606</v>
       </c>
       <c r="F6">
-        <v>15.63717124402763</v>
+        <v>15.45312364784244</v>
       </c>
       <c r="G6">
-        <v>18.70852407998022</v>
+        <v>17.68219227208846</v>
       </c>
       <c r="I6">
-        <v>2.641984063265502</v>
+        <v>2.697197784736007</v>
       </c>
       <c r="J6">
-        <v>8.294819645549632</v>
+        <v>8.705380791472118</v>
       </c>
       <c r="K6">
-        <v>12.83538226025489</v>
+        <v>12.59502693227248</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.44761012323645</v>
       </c>
       <c r="M6">
-        <v>9.926334119147096</v>
+        <v>7.26583973558398</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.63664470189129</v>
+        <v>9.924296400381397</v>
       </c>
       <c r="P6">
-        <v>12.2047136863273</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.01309169211925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.63856485552888</v>
+      </c>
+      <c r="R6">
+        <v>12.15587909716618</v>
+      </c>
+      <c r="S6">
+        <v>12.86956200725908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.44515553829667</v>
+        <v>10.36542254382296</v>
       </c>
       <c r="C7">
-        <v>7.744267515619701</v>
+        <v>7.701320281849536</v>
       </c>
       <c r="D7">
-        <v>4.798439488936743</v>
+        <v>4.826794588351389</v>
       </c>
       <c r="E7">
-        <v>13.33488803535219</v>
+        <v>13.3320858325233</v>
       </c>
       <c r="F7">
-        <v>15.71048346368463</v>
+        <v>15.50617153944552</v>
       </c>
       <c r="G7">
-        <v>18.78644585218084</v>
+        <v>17.82639333290507</v>
       </c>
       <c r="I7">
-        <v>2.682356167369441</v>
+        <v>2.733055884662784</v>
       </c>
       <c r="J7">
-        <v>8.280331595949116</v>
+        <v>8.666549096774007</v>
       </c>
       <c r="K7">
-        <v>12.80109455511786</v>
+        <v>12.5532470797705</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.39124873433125</v>
       </c>
       <c r="M7">
-        <v>10.09768267596247</v>
+        <v>7.239847561887585</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.92149371031046</v>
+        <v>10.09149408242653</v>
       </c>
       <c r="P7">
-        <v>12.16049722051262</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.00970896297196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.92135499846424</v>
+      </c>
+      <c r="R7">
+        <v>12.11491245527725</v>
+      </c>
+      <c r="S7">
+        <v>12.85363916670428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.37680300621995</v>
+        <v>11.22974116248254</v>
       </c>
       <c r="C8">
-        <v>8.189457531818846</v>
+        <v>8.244807203275377</v>
       </c>
       <c r="D8">
-        <v>5.088877809651053</v>
+        <v>5.141919832963696</v>
       </c>
       <c r="E8">
-        <v>14.45830340912544</v>
+        <v>14.45617807321587</v>
       </c>
       <c r="F8">
-        <v>16.06656413992776</v>
+        <v>15.79434094879204</v>
       </c>
       <c r="G8">
-        <v>19.18421720475945</v>
+        <v>18.33625839351289</v>
       </c>
       <c r="I8">
-        <v>2.852712251216638</v>
+        <v>2.884456478831392</v>
       </c>
       <c r="J8">
-        <v>8.22780251356043</v>
+        <v>8.572134649015526</v>
       </c>
       <c r="K8">
-        <v>12.67160901066377</v>
+        <v>12.39675312915821</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.17088871072111</v>
       </c>
       <c r="M8">
-        <v>10.81828985798393</v>
+        <v>7.181544902182491</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.11165903771189</v>
+        <v>10.80159242201641</v>
       </c>
       <c r="P8">
-        <v>11.97054220876325</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.02134389720125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.10605801185787</v>
+      </c>
+      <c r="R8">
+        <v>11.93970742677951</v>
+      </c>
+      <c r="S8">
+        <v>12.82333316096344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.01419596114661</v>
+        <v>12.75851223649087</v>
       </c>
       <c r="C9">
-        <v>8.979700043814558</v>
+        <v>9.225501698827591</v>
       </c>
       <c r="D9">
-        <v>5.606332099012036</v>
+        <v>5.694528652672008</v>
       </c>
       <c r="E9">
-        <v>16.58658371407865</v>
+        <v>16.58497118912404</v>
       </c>
       <c r="F9">
-        <v>16.84797552455596</v>
+        <v>16.47616650256129</v>
       </c>
       <c r="G9">
-        <v>20.10229721715886</v>
+        <v>19.16927650534006</v>
       </c>
       <c r="I9">
-        <v>3.165175047991649</v>
+        <v>3.162901703642149</v>
       </c>
       <c r="J9">
-        <v>8.159549752981658</v>
+        <v>8.52116443246587</v>
       </c>
       <c r="K9">
-        <v>12.47734212390763</v>
+        <v>12.15355623288551</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.7966807497989</v>
       </c>
       <c r="M9">
-        <v>12.09944478384397</v>
+        <v>7.26365835791132</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.2064775496844</v>
+        <v>12.0750412310433</v>
       </c>
       <c r="P9">
-        <v>11.61485627280588</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.12268943140978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.19543124078665</v>
+      </c>
+      <c r="R9">
+        <v>11.61382331722402</v>
+      </c>
+      <c r="S9">
+        <v>12.86069969781495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.08050136308547</v>
+        <v>13.74290944435421</v>
       </c>
       <c r="C10">
-        <v>9.539467193908017</v>
+        <v>9.889404251591538</v>
       </c>
       <c r="D10">
-        <v>5.958810323621817</v>
+        <v>6.083294007155695</v>
       </c>
       <c r="E10">
-        <v>18.19692646673105</v>
+        <v>18.1993050996369</v>
       </c>
       <c r="F10">
-        <v>17.44281074804639</v>
+        <v>16.93603954341899</v>
       </c>
       <c r="G10">
-        <v>20.81142839662714</v>
+        <v>20.29186806009265</v>
       </c>
       <c r="I10">
-        <v>3.385194139286348</v>
+        <v>3.358224019987699</v>
       </c>
       <c r="J10">
-        <v>8.124669344493999</v>
+        <v>8.312370681612657</v>
       </c>
       <c r="K10">
-        <v>12.35282122365636</v>
+        <v>11.96179894923889</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.51691107368604</v>
       </c>
       <c r="M10">
-        <v>12.95778857304907</v>
+        <v>7.399168168883172</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.60160104276284</v>
+        <v>12.91252402271459</v>
       </c>
       <c r="P10">
-        <v>11.3630939202655</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.22895165874675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.57870506195892</v>
+      </c>
+      <c r="R10">
+        <v>11.38694109978122</v>
+      </c>
+      <c r="S10">
+        <v>12.87122270708731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.51919426204075</v>
+        <v>14.12807390347566</v>
       </c>
       <c r="C11">
-        <v>9.816023208088245</v>
+        <v>10.17116709804521</v>
       </c>
       <c r="D11">
-        <v>6.117694283050938</v>
+        <v>6.280185788400478</v>
       </c>
       <c r="E11">
-        <v>18.89754265681324</v>
+        <v>18.91316714822621</v>
       </c>
       <c r="F11">
-        <v>17.69392348652685</v>
+        <v>17.02291181927004</v>
       </c>
       <c r="G11">
-        <v>21.0994845794299</v>
+        <v>21.58472509769363</v>
       </c>
       <c r="I11">
-        <v>3.487026600706018</v>
+        <v>3.447691377474599</v>
       </c>
       <c r="J11">
-        <v>8.105437525801053</v>
+        <v>7.933475350516354</v>
       </c>
       <c r="K11">
-        <v>12.2809943277213</v>
+        <v>11.81578415345453</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.35530207213343</v>
       </c>
       <c r="M11">
-        <v>13.33033284731712</v>
+        <v>7.42103207038103</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.20564683241761</v>
+        <v>13.24937343467803</v>
       </c>
       <c r="P11">
-        <v>11.25094707447813</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.2670533312723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.16492792612078</v>
+      </c>
+      <c r="R11">
+        <v>11.29085526983908</v>
+      </c>
+      <c r="S11">
+        <v>12.78850892686386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.69134299364818</v>
+        <v>14.27817393948609</v>
       </c>
       <c r="C12">
-        <v>9.904064683372814</v>
+        <v>10.25498185713335</v>
       </c>
       <c r="D12">
-        <v>6.17406784435933</v>
+        <v>6.353409430892041</v>
       </c>
       <c r="E12">
-        <v>19.15875227642267</v>
+        <v>19.18063716076674</v>
       </c>
       <c r="F12">
-        <v>17.80329312015175</v>
+        <v>17.05741945486405</v>
       </c>
       <c r="G12">
-        <v>21.2341752779056</v>
+        <v>22.20186750634549</v>
       </c>
       <c r="I12">
-        <v>3.52327772073767</v>
+        <v>3.478165220368957</v>
       </c>
       <c r="J12">
-        <v>8.102765832543016</v>
+        <v>7.772859534732281</v>
       </c>
       <c r="K12">
-        <v>12.26584423403318</v>
+        <v>11.76592931338935</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.29865276424922</v>
       </c>
       <c r="M12">
-        <v>13.46845948136989</v>
+        <v>7.435999137413559</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.42993554611755</v>
+        <v>13.37099391435141</v>
       </c>
       <c r="P12">
-        <v>11.20857505941623</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.29298553070702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.38106317860164</v>
+      </c>
+      <c r="R12">
+        <v>11.25498454568334</v>
+      </c>
+      <c r="S12">
+        <v>12.75850487345346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.65641429276626</v>
+        <v>14.24807233819284</v>
       </c>
       <c r="C13">
-        <v>9.882052303533015</v>
+        <v>10.23389385531662</v>
       </c>
       <c r="D13">
-        <v>6.16141387728088</v>
+        <v>6.337004248358522</v>
       </c>
       <c r="E13">
-        <v>19.10275614339923</v>
+        <v>19.1232378201193</v>
       </c>
       <c r="F13">
-        <v>17.78238975037492</v>
+        <v>17.05319154101585</v>
       </c>
       <c r="G13">
-        <v>21.2098966018134</v>
+        <v>22.06928444293676</v>
       </c>
       <c r="I13">
-        <v>3.515020104498801</v>
+        <v>3.470973167805844</v>
       </c>
       <c r="J13">
-        <v>8.1041146835547</v>
+        <v>7.808604558201663</v>
       </c>
       <c r="K13">
-        <v>12.27131346629427</v>
+        <v>11.77897019870106</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.31221157382503</v>
       </c>
       <c r="M13">
-        <v>13.4387763451108</v>
+        <v>7.434912080640284</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.3818104450978</v>
+        <v>13.34499276626911</v>
       </c>
       <c r="P13">
-        <v>11.21764362140491</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.28937915062908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.33475311491797</v>
+      </c>
+      <c r="R13">
+        <v>11.26253617114235</v>
+      </c>
+      <c r="S13">
+        <v>12.76734411713713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.53427991096939</v>
+        <v>14.14138106071964</v>
       </c>
       <c r="C14">
-        <v>9.8219637244175</v>
+        <v>10.1767692989858</v>
       </c>
       <c r="D14">
-        <v>6.122114033935025</v>
+        <v>6.285937199853213</v>
       </c>
       <c r="E14">
-        <v>18.91914832249996</v>
+        <v>18.93526306060248</v>
       </c>
       <c r="F14">
-        <v>17.70405185736341</v>
+        <v>17.02713055134218</v>
       </c>
       <c r="G14">
-        <v>21.112582364743</v>
+        <v>21.63553019631275</v>
       </c>
       <c r="I14">
-        <v>3.489811312137401</v>
+        <v>3.449924067993353</v>
       </c>
       <c r="J14">
-        <v>8.105545748113808</v>
+        <v>7.920814285048394</v>
       </c>
       <c r="K14">
-        <v>12.28068386855217</v>
+        <v>11.81266946757377</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.35123004504805</v>
       </c>
       <c r="M14">
-        <v>13.34172708097493</v>
+        <v>7.423170843655829</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.22418035732775</v>
+        <v>13.25946717209365</v>
       </c>
       <c r="P14">
-        <v>11.24743752145183</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.27002734595453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.18281741261612</v>
+      </c>
+      <c r="R14">
+        <v>11.28783218069335</v>
+      </c>
+      <c r="S14">
+        <v>12.78706262250479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.4550118776669</v>
+        <v>14.07134164332686</v>
       </c>
       <c r="C15">
-        <v>9.791195949206056</v>
+        <v>10.14759657046095</v>
       </c>
       <c r="D15">
-        <v>6.099022801924066</v>
+        <v>6.255984064493796</v>
       </c>
       <c r="E15">
-        <v>18.80598080081553</v>
+        <v>18.81958191572383</v>
       </c>
       <c r="F15">
-        <v>17.65083170367446</v>
+        <v>17.00430072624281</v>
       </c>
       <c r="G15">
-        <v>21.04363678719128</v>
+        <v>21.3735084050859</v>
       </c>
       <c r="I15">
-        <v>3.475337038865123</v>
+        <v>3.438356933281733</v>
       </c>
       <c r="J15">
-        <v>8.104924595549832</v>
+        <v>7.986197196122571</v>
       </c>
       <c r="K15">
-        <v>12.28212112122889</v>
+        <v>11.8285363965491</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.37228443554916</v>
       </c>
       <c r="M15">
-        <v>13.28204125833182</v>
+        <v>7.411669798023461</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.12708886594454</v>
+        <v>13.20646296421025</v>
       </c>
       <c r="P15">
-        <v>11.26580255795603</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.25432020498504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.08903798041635</v>
+      </c>
+      <c r="R15">
+        <v>11.30368706429598</v>
+      </c>
+      <c r="S15">
+        <v>12.79406417766491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.01740629424761</v>
+        <v>13.68305759353681</v>
       </c>
       <c r="C16">
-        <v>9.573970806390109</v>
+        <v>9.926762994590709</v>
       </c>
       <c r="D16">
-        <v>5.95777286881349</v>
+        <v>6.080267192048994</v>
       </c>
       <c r="E16">
-        <v>18.1494134818248</v>
+        <v>18.15110650982686</v>
       </c>
       <c r="F16">
-        <v>17.3810634607875</v>
+        <v>16.88345826080008</v>
       </c>
       <c r="G16">
-        <v>20.71160630677947</v>
+        <v>20.13805111224591</v>
       </c>
       <c r="I16">
-        <v>3.385839579822588</v>
+        <v>3.362628799302325</v>
       </c>
       <c r="J16">
-        <v>8.112684788595699</v>
+        <v>8.321920881279279</v>
       </c>
       <c r="K16">
-        <v>12.32038478961775</v>
+        <v>11.93571051600123</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.50447452035947</v>
       </c>
       <c r="M16">
-        <v>12.93399419889199</v>
+        <v>7.365007154960599</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.56177541945165</v>
+        <v>12.8907080065216</v>
       </c>
       <c r="P16">
-        <v>11.37100471324224</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.19255926565466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>17.53988017340184</v>
+      </c>
+      <c r="R16">
+        <v>11.3949227800279</v>
+      </c>
+      <c r="S16">
+        <v>12.84204992965218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.74170523570673</v>
+        <v>13.43440179667547</v>
       </c>
       <c r="C17">
-        <v>9.438931886987138</v>
+        <v>9.780376663484807</v>
       </c>
       <c r="D17">
-        <v>5.869406057580841</v>
+        <v>5.975175143398209</v>
       </c>
       <c r="E17">
-        <v>17.73865770949415</v>
+        <v>17.73531619482228</v>
       </c>
       <c r="F17">
-        <v>17.21700860322479</v>
+        <v>16.78888855731105</v>
       </c>
       <c r="G17">
-        <v>20.51059743753222</v>
+        <v>19.55801711280943</v>
       </c>
       <c r="I17">
-        <v>3.330574238197227</v>
+        <v>3.315329636496041</v>
       </c>
       <c r="J17">
-        <v>8.118577857567804</v>
+        <v>8.475938025819655</v>
       </c>
       <c r="K17">
-        <v>12.3455607125835</v>
+        <v>11.99316943809829</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.58131272047042</v>
       </c>
       <c r="M17">
-        <v>12.71574023260428</v>
+        <v>7.332278168030096</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.20713713357471</v>
+        <v>12.68690605282541</v>
       </c>
       <c r="P17">
-        <v>11.43600271640168</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.15707677255946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.19262081167253</v>
+      </c>
+      <c r="R17">
+        <v>11.45240828200774</v>
+      </c>
+      <c r="S17">
+        <v>12.85694195403989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.5910139572392</v>
+        <v>13.29807708044028</v>
       </c>
       <c r="C18">
-        <v>9.344263607975577</v>
+        <v>9.674528195587049</v>
       </c>
       <c r="D18">
-        <v>5.815021915924466</v>
+        <v>5.912740395498305</v>
       </c>
       <c r="E18">
-        <v>17.49978789153833</v>
+        <v>17.49440052687676</v>
       </c>
       <c r="F18">
-        <v>17.13717516768176</v>
+        <v>16.74115169535532</v>
       </c>
       <c r="G18">
-        <v>20.42096345162676</v>
+        <v>19.31332794222918</v>
       </c>
       <c r="I18">
-        <v>3.295563610587198</v>
+        <v>3.283627795685517</v>
       </c>
       <c r="J18">
-        <v>8.126412954030826</v>
+        <v>8.54645074759458</v>
       </c>
       <c r="K18">
-        <v>12.37189342990726</v>
+        <v>12.03397913256604</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.63107389361739</v>
       </c>
       <c r="M18">
-        <v>12.58818518524737</v>
+        <v>7.321853020637743</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.00017578362066</v>
+        <v>12.56566301728233</v>
       </c>
       <c r="P18">
-        <v>11.47343219790783</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.1479118791569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.9889531683551</v>
+      </c>
+      <c r="R18">
+        <v>11.48557723336006</v>
+      </c>
+      <c r="S18">
+        <v>12.87062412622131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.53141312442692</v>
+        <v>13.24313638779018</v>
       </c>
       <c r="C19">
-        <v>9.324684086211482</v>
+        <v>9.651552832346329</v>
       </c>
       <c r="D19">
-        <v>5.798760188259135</v>
+        <v>5.894058572589312</v>
       </c>
       <c r="E19">
-        <v>17.41813792877559</v>
+        <v>17.41220599139213</v>
       </c>
       <c r="F19">
-        <v>17.09947580172726</v>
+        <v>16.71301861829014</v>
       </c>
       <c r="G19">
-        <v>20.37155019152311</v>
+        <v>19.2214651768818</v>
       </c>
       <c r="I19">
-        <v>3.285988675634586</v>
+        <v>3.275954428609372</v>
       </c>
       <c r="J19">
-        <v>8.126019910478391</v>
+        <v>8.563539305080232</v>
       </c>
       <c r="K19">
-        <v>12.37223752449455</v>
+        <v>12.03910976965334</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.6420901196086</v>
       </c>
       <c r="M19">
-        <v>12.54492165580232</v>
+        <v>7.310764432379548</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.92967133259101</v>
+        <v>12.52421224036152</v>
       </c>
       <c r="P19">
-        <v>11.48623587161024</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.13695771921438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.91940973642544</v>
+      </c>
+      <c r="R19">
+        <v>11.49719366606079</v>
+      </c>
+      <c r="S19">
+        <v>12.86653264185703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.77214851537945</v>
+        <v>13.46208892551837</v>
       </c>
       <c r="C20">
-        <v>9.452101411165831</v>
+        <v>9.795007711522201</v>
       </c>
       <c r="D20">
-        <v>5.878649352434928</v>
+        <v>5.986028673227784</v>
       </c>
       <c r="E20">
-        <v>17.78271520866997</v>
+        <v>17.7798219079111</v>
       </c>
       <c r="F20">
-        <v>17.2355060722191</v>
+        <v>16.80080229597259</v>
       </c>
       <c r="G20">
-        <v>20.53383938913984</v>
+        <v>19.61514964567126</v>
       </c>
       <c r="I20">
-        <v>3.336224423014588</v>
+        <v>3.320065685697273</v>
       </c>
       <c r="J20">
-        <v>8.118224992756577</v>
+        <v>8.462049555682126</v>
       </c>
       <c r="K20">
-        <v>12.34369979747315</v>
+        <v>11.98818751345349</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.57385595403513</v>
       </c>
       <c r="M20">
-        <v>12.73913095293851</v>
+        <v>7.336648622664367</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.24518153393293</v>
+        <v>12.70896153017325</v>
       </c>
       <c r="P20">
-        <v>11.42905407891391</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.16157606579353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.22997606542217</v>
+      </c>
+      <c r="R20">
+        <v>11.44620243806105</v>
+      </c>
+      <c r="S20">
+        <v>12.85668849938394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.55919166051437</v>
+        <v>14.15531769455972</v>
       </c>
       <c r="C21">
-        <v>9.857063704937874</v>
+        <v>10.19753571176736</v>
       </c>
       <c r="D21">
-        <v>6.136812299729689</v>
+        <v>6.311962510842588</v>
       </c>
       <c r="E21">
-        <v>18.97283512126175</v>
+        <v>18.99439836484082</v>
       </c>
       <c r="F21">
-        <v>17.71196343231429</v>
+        <v>16.98344163793127</v>
       </c>
       <c r="G21">
-        <v>21.11419962515668</v>
+        <v>22.02540766505599</v>
       </c>
       <c r="I21">
-        <v>3.500085660507033</v>
+        <v>3.459002676765609</v>
       </c>
       <c r="J21">
-        <v>8.10061221565061</v>
+        <v>7.795615873152297</v>
       </c>
       <c r="K21">
-        <v>12.26531572576368</v>
+        <v>11.77599073753255</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.32327036218819</v>
       </c>
       <c r="M21">
-        <v>13.3706110999033</v>
+        <v>7.400982717769677</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.27067941586366</v>
+        <v>13.27565959714315</v>
       </c>
       <c r="P21">
-        <v>11.23893075226322</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.26423759812486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.22328080919378</v>
+      </c>
+      <c r="R21">
+        <v>11.28234092339603</v>
+      </c>
+      <c r="S21">
+        <v>12.74326029941337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.06397578145407</v>
+        <v>14.59917655260448</v>
       </c>
       <c r="C22">
-        <v>10.09375809021471</v>
+        <v>10.42645445701609</v>
       </c>
       <c r="D22">
-        <v>6.295898553563725</v>
+        <v>6.516806711395287</v>
       </c>
       <c r="E22">
-        <v>19.72534983866542</v>
+        <v>19.76319150831281</v>
       </c>
       <c r="F22">
-        <v>18.04692005048349</v>
+        <v>17.11316143917062</v>
       </c>
       <c r="G22">
-        <v>21.53616564656523</v>
+        <v>23.75051322348413</v>
       </c>
       <c r="I22">
-        <v>3.602261765298921</v>
+        <v>3.544013899012203</v>
       </c>
       <c r="J22">
-        <v>8.098631031698185</v>
+        <v>7.407828715053087</v>
       </c>
       <c r="K22">
-        <v>12.23585020837872</v>
+        <v>11.64823702917011</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.17129399002487</v>
       </c>
       <c r="M22">
-        <v>13.76734846915568</v>
+        <v>7.463989655199679</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.91534626035128</v>
+        <v>13.62834307377022</v>
       </c>
       <c r="P22">
-        <v>11.11580885858885</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.35390079330333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.84610179837413</v>
+      </c>
+      <c r="R22">
+        <v>11.17801034858778</v>
+      </c>
+      <c r="S22">
+        <v>12.67758404946351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.80994418954704</v>
+        <v>14.38205285860507</v>
       </c>
       <c r="C23">
-        <v>9.947132209032784</v>
+        <v>10.29308094945456</v>
       </c>
       <c r="D23">
-        <v>6.207769907824561</v>
+        <v>6.398636978189197</v>
       </c>
       <c r="E23">
-        <v>19.32648092771629</v>
+        <v>19.35274551138548</v>
       </c>
       <c r="F23">
-        <v>17.88584043266718</v>
+        <v>17.08799306160418</v>
       </c>
       <c r="G23">
-        <v>21.34247523522293</v>
+        <v>22.65087141633425</v>
       </c>
       <c r="I23">
-        <v>3.544759031463561</v>
+        <v>3.495074692344613</v>
       </c>
       <c r="J23">
-        <v>8.104746042376201</v>
+        <v>7.66830050988686</v>
       </c>
       <c r="K23">
-        <v>12.26622172337129</v>
+        <v>11.74138138906684</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.26695865499942</v>
       </c>
       <c r="M23">
-        <v>13.55666880728974</v>
+        <v>7.453504067933676</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.57349345311017</v>
+        <v>13.44771913595861</v>
       </c>
       <c r="P23">
-        <v>11.18107414185095</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.31905229656502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.51896892759081</v>
+      </c>
+      <c r="R23">
+        <v>11.2315322754561</v>
+      </c>
+      <c r="S23">
+        <v>12.74532592037593</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.7804814504532</v>
+        <v>13.47167199306585</v>
       </c>
       <c r="C24">
-        <v>9.411877826738763</v>
+        <v>9.751513229912479</v>
       </c>
       <c r="D24">
-        <v>5.868315849183661</v>
+        <v>5.974874809274155</v>
       </c>
       <c r="E24">
-        <v>17.76352261052693</v>
+        <v>17.76042245696252</v>
       </c>
       <c r="F24">
-        <v>17.25654550231188</v>
+        <v>16.82476296440183</v>
       </c>
       <c r="G24">
-        <v>20.57587412934184</v>
+        <v>19.64296516778566</v>
       </c>
       <c r="I24">
-        <v>3.328056393130975</v>
+        <v>3.310215001992648</v>
       </c>
       <c r="J24">
-        <v>8.126928769080282</v>
+        <v>8.476171683362228</v>
       </c>
       <c r="K24">
-        <v>12.36837116311053</v>
+        <v>12.01294335399931</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.59222524648053</v>
       </c>
       <c r="M24">
-        <v>12.72795929200735</v>
+        <v>7.35512947727619</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.22781098894248</v>
+        <v>12.69835667796683</v>
       </c>
       <c r="P24">
-        <v>11.43189688344989</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.18145482266894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.21289839513599</v>
+      </c>
+      <c r="R24">
+        <v>11.44811691925106</v>
+      </c>
+      <c r="S24">
+        <v>12.87836306946758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.57104105701834</v>
+        <v>12.34608774322533</v>
       </c>
       <c r="C25">
-        <v>8.806069567636703</v>
+        <v>9.01167234803188</v>
       </c>
       <c r="D25">
-        <v>5.477711082496884</v>
+        <v>5.553553283311354</v>
       </c>
       <c r="E25">
-        <v>15.98181359481806</v>
+        <v>15.97451369822051</v>
       </c>
       <c r="F25">
-        <v>16.60164787414902</v>
+        <v>16.27239811149727</v>
       </c>
       <c r="G25">
-        <v>19.79218782259723</v>
+        <v>18.76115158362819</v>
       </c>
       <c r="I25">
-        <v>3.086676692946777</v>
+        <v>3.095539675189347</v>
       </c>
       <c r="J25">
-        <v>8.166707335410392</v>
+        <v>8.570356800881594</v>
       </c>
       <c r="K25">
-        <v>12.50260375070761</v>
+        <v>12.20031981154573</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.88331481222357</v>
       </c>
       <c r="M25">
-        <v>11.76789031218764</v>
+        <v>7.209734466701347</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.66541988078944</v>
+        <v>11.74965844922863</v>
       </c>
       <c r="P25">
-        <v>11.70936550172011</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.06729981489337</v>
+        <v>15.65791081554093</v>
+      </c>
+      <c r="R25">
+        <v>11.7003177957595</v>
+      </c>
+      <c r="S25">
+        <v>12.83454752760421</v>
       </c>
     </row>
   </sheetData>
